--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E269A3-F12D-40BB-8AEC-C2F31A72BC03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914FBE0F-276C-4E38-9CF0-4FA35994DA34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000160983		</t>
+    <t xml:space="preserve">JHB/EBPANP/000161010		</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914FBE0F-276C-4E38-9CF0-4FA35994DA34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8134B769-8099-4E5B-BF12-3D0C0C4AEBB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161010		</t>
+    <t xml:space="preserve">JHB/EBPANP/000161048		</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8134B769-8099-4E5B-BF12-3D0C0C4AEBB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03897BC4-8C13-4E87-AA53-5D429C01C2F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161048		</t>
+    <t xml:space="preserve">JHB/EBPANP/000161049		</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1542,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03897BC4-8C13-4E87-AA53-5D429C01C2F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE244A-5356-4F09-9F49-527C153F4DD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161049		</t>
+    <t xml:space="preserve">JHB/EBPANP/000161050		</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE244A-5356-4F09-9F49-527C153F4DD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD28B936-F4BA-4A14-A40C-096D49C8BCD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161050		</t>
+    <t xml:space="preserve">JHB/EBPANP/000161051		</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD28B936-F4BA-4A14-A40C-096D49C8BCD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0491F32-1E7E-491E-AA03-A546B2BDA30E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161051		</t>
+    <t xml:space="preserve">JHB/EBPANP/000161054	</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0491F32-1E7E-491E-AA03-A546B2BDA30E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57513775-A1FC-4342-8339-7A01C7997178}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161054	</t>
+    <t xml:space="preserve">JHB/EBPANP/000159819	</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57513775-A1FC-4342-8339-7A01C7997178}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C61969C-3DA0-4350-A451-A40CFF127F20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000159819	</t>
+    <t xml:space="preserve">JHB/EBPANP/000159821	</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:BF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C61969C-3DA0-4350-A451-A40CFF127F20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5948E3-44A4-4394-A02A-974DDCD8923A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000159821	</t>
+    <t xml:space="preserve">JHB/EBPANP/000161095	</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:BF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5948E3-44A4-4394-A02A-974DDCD8923A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED172CE-604F-41F1-937E-5A3431AB5521}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161095	</t>
+    <t xml:space="preserve">JHB/EBPANP/000161094	</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED172CE-604F-41F1-937E-5A3431AB5521}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0079FEE-808B-4CE4-86F4-689FAF338F80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161094	</t>
+    <t xml:space="preserve">JHB/EBPANP/000161595	</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0079FEE-808B-4CE4-86F4-689FAF338F80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18674A78-C708-4F3E-B3AB-30409046160E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="192">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>01/04/2018</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -609,7 +606,13 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000161595	</t>
+    <t>JHB/EBPANP/000162030</t>
+  </si>
+  <si>
+    <t>JHB/EBPANP/000162031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHB/EBPANP/000162143	</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO5"/>
+  <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -1167,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1179,13 +1182,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>19</v>
@@ -1200,148 +1203,148 @@
         <v>21</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="X1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AJ1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="AO1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AS1" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="AT1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BE1" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="BF1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BG1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="BI1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BK1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="BK1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BM1" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="BN1" s="12"/>
       <c r="BO1" s="12"/>
@@ -1354,13 +1357,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
@@ -1373,11 +1376,11 @@
         <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="2">
@@ -1387,150 +1390,150 @@
       <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>22</v>
+      <c r="Q2" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="AL2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="AR2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT2" s="9">
         <v>1</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="AW2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BB2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BC2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BE2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BH2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BI2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BJ2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BK2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BL2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BM2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BN2" s="12"/>
       <c r="BO2" s="12"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="AX5" s="10"/>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="AX3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,154 +1629,154 @@
         <v>8</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="X1" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z1" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Y1" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>149</v>
-      </c>
       <c r="AA1" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AG1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AH1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="AJ1" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="AL1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AN1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AO1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AP1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AR1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AR1" s="24" t="s">
-        <v>177</v>
-      </c>
       <c r="AS1" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AV1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AW1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AX1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AX1" s="24" t="s">
-        <v>70</v>
-      </c>
       <c r="AY1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="AZ1" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="BA1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BC1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="BD1" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="BE1" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
@@ -1799,157 +1802,333 @@
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="T2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="19" t="s">
+      <c r="V2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="AA2" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF2" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG2" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AI2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK2" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="AO2" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AP2" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ2" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AR2" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS2" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AU2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>73</v>
-      </c>
       <c r="AW2" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX2" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AY2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="AZ2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB2" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BC2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF2" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR3" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BB2" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="BC2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BE2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF2" s="26" t="s">
-        <v>73</v>
+      <c r="BA3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB3" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF3" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2004,73 +2183,73 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -2081,39 +2260,39 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
@@ -2123,27 +2302,27 @@
         <v>10</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
@@ -2204,10 +2383,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -2222,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2261,10 +2440,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2302,16 +2481,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -2320,19 +2499,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1">
         <v>2300</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="4">
         <v>2300</v>
@@ -2377,22 +2556,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2400,28 +2579,28 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1">
         <v>2300</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="4">
         <v>2300</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18674A78-C708-4F3E-B3AB-30409046160E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE95D3-469D-45AB-BFC9-21E9A81F1A7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="191">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -606,13 +606,10 @@
     <t>Status1</t>
   </si>
   <si>
-    <t>JHB/EBPANP/000162030</t>
-  </si>
-  <si>
-    <t>JHB/EBPANP/000162031</t>
-  </si>
-  <si>
     <t xml:space="preserve">JHB/EBPANP/000162143	</t>
+  </si>
+  <si>
+    <t>JHB/EBPANP/000162143</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>132</v>
@@ -1543,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BF3"/>
+  <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,182 +1952,6 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB3" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF3" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL3" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO3" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ3" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR3" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS3" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT3" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU3" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV3" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW3" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX3" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB3" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="BC3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="BE3" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF3" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE95D3-469D-45AB-BFC9-21E9A81F1A7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B127D5-F963-4919-8426-8FA0B0F7C0E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="197">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -606,19 +606,34 @@
     <t>Status1</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000162143	</t>
-  </si>
-  <si>
-    <t>JHB/EBPANP/000162143</t>
+    <t>JHB/EBPANP/000162144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHB/EBPANP/000162144	</t>
+  </si>
+  <si>
+    <t>8,695.66</t>
+  </si>
+  <si>
+    <t>8,695.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHB/EBPANP/000162145	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHB/EBPANP/000162146	</t>
+  </si>
+  <si>
+    <t>JHB/EBPANP/000162145</t>
+  </si>
+  <si>
+    <t>JHB/EBPANP/000162146</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -739,7 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1082,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:BO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="BK9" sqref="BK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,38 +1327,38 @@
       <c r="BC1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BD1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BE1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BF1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BG1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BH1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BI1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BK1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BL1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="BM1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1354,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>132</v>
@@ -1475,62 +1489,425 @@
       <c r="AV2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" s="11" t="s">
+      <c r="AW2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AX2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AY2" s="11" t="s">
+      <c r="AY2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="11" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BA2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BA2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BE2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
+      <c r="BF2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="BK2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN2" s="12"/>
-      <c r="BO2" s="12"/>
+      <c r="BK2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="AX3" s="10"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,8 +1953,7 @@
     <col min="32" max="32" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -1625,10 +2001,10 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -1646,109 +2022,109 @@
       <c r="O1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AM1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AN1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AO1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AP1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AR1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AS1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AT1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AU1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AV1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AW1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" s="24" t="s">
+      <c r="AX1" s="23" t="s">
         <v>69</v>
       </c>
       <c r="AY1" s="8" t="s">
@@ -1784,7 +2160,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -1801,10 +2177,10 @@
       <c r="H2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>132</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -1822,109 +2198,109 @@
       <c r="O2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="19" t="s">
+      <c r="T2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" s="19" t="s">
+      <c r="V2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AD2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AK2" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR2" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AT2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AW2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="24" t="s">
         <v>71</v>
       </c>
       <c r="AY2" s="8" t="s">
@@ -1936,7 +2312,7 @@
       <c r="BA2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="BB2" s="26" t="s">
+      <c r="BB2" s="25" t="s">
         <v>182</v>
       </c>
       <c r="BC2" s="8" t="s">
@@ -1945,10 +2321,362 @@
       <c r="BD2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="BE2" s="26" t="s">
+      <c r="BE2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="BF2" s="26" t="s">
+      <c r="BF2" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR3" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB3" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF3" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR4" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB4" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF4" s="25" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2388,10 +3116,10 @@
       <c r="G1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2417,10 +3145,10 @@
       <c r="G2" s="4">
         <v>2300</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>136</v>
       </c>
     </row>

--- a/TestData/Claims.xlsx
+++ b/TestData/Claims.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumAutomationScript\HollardAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpumelelod\HollardIT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B127D5-F963-4919-8426-8FA0B0F7C0E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FE440-011C-423A-B7BD-BB4B9A67623E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClaim" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="195">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -609,25 +609,19 @@
     <t>JHB/EBPANP/000162144</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000162144	</t>
-  </si>
-  <si>
     <t>8,695.66</t>
   </si>
   <si>
     <t>8,695.67</t>
   </si>
   <si>
-    <t xml:space="preserve">JHB/EBPANP/000162145	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JHB/EBPANP/000162146	</t>
-  </si>
-  <si>
     <t>JHB/EBPANP/000162145</t>
   </si>
   <si>
     <t>JHB/EBPANP/000162146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHB/EBPANP/000162238	</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO4"/>
+  <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BK9" sqref="BK9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>132</v>
@@ -1542,372 +1536,6 @@
       </c>
       <c r="BN2" s="11"/>
       <c r="BO2" s="11"/>
-    </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1919,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
@@ -2336,7 +1964,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -2432,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ3" s="11" t="s">
         <v>169</v>
@@ -2512,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -2608,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ4" s="11" t="s">
         <v>169</v>
